--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
   <si>
     <t>API Mode</t>
   </si>
@@ -475,6 +475,60 @@
   </si>
   <si>
     <t>RMA-EM0X-1-3</t>
+  </si>
+  <si>
+    <t>RMA-DHG8-001</t>
+  </si>
+  <si>
+    <t>RMA-DHG8-002</t>
+  </si>
+  <si>
+    <t>RMA-DHG8-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLqAAM</t>
+  </si>
+  <si>
+    <t>RMA-DHG8-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLrAAM</t>
+  </si>
+  <si>
+    <t>RMA-DHG8-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLsAAM</t>
+  </si>
+  <si>
+    <t>RMA-DHG8-1-3</t>
+  </si>
+  <si>
+    <t>RMA-DU0X-001</t>
+  </si>
+  <si>
+    <t>RMA-DU0X-002</t>
+  </si>
+  <si>
+    <t>RMA-DU0X-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKMAAA2</t>
+  </si>
+  <si>
+    <t>RMA-DU0X-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKMBAA2</t>
+  </si>
+  <si>
+    <t>RMA-DU0X-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKMCAA2</t>
+  </si>
+  <si>
+    <t>RMA-DU0X-1-3</t>
   </si>
 </sst>
 </file>
@@ -484,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +558,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1090,7 +1288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1242,11 +1440,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1344,8 +1578,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="98" fillId="0" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2214,11 +2472,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.65625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.453125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2268,10 +2526,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2280,7 +2538,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2297,10 +2555,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2309,7 +2567,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2326,10 +2584,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2338,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
   <si>
     <t>API Mode</t>
   </si>
@@ -529,6 +529,60 @@
   </si>
   <si>
     <t>RMA-DU0X-1-3</t>
+  </si>
+  <si>
+    <t>RMA-R52W-001</t>
+  </si>
+  <si>
+    <t>RMA-R52W-002</t>
+  </si>
+  <si>
+    <t>RMA-R52W-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKR0AAM</t>
+  </si>
+  <si>
+    <t>RMA-R52W-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKR1AAM</t>
+  </si>
+  <si>
+    <t>RMA-R52W-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKR2AAM</t>
+  </si>
+  <si>
+    <t>RMA-R52W-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZHZC-001</t>
+  </si>
+  <si>
+    <t>RMA-ZHZC-002</t>
+  </si>
+  <si>
+    <t>RMA-ZHZC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRPAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZHZC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRQAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZHZC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRRAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZHZC-1-3</t>
   </si>
 </sst>
 </file>
@@ -538,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +612,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1288,7 +1486,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1476,11 +1674,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1602,8 +1836,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="146" fillId="0" borderId="72" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2472,11 +2730,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.65625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.23828125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.97265625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2526,10 +2784,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2538,7 +2796,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2555,10 +2813,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2567,7 +2825,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2584,10 +2842,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2596,7 +2854,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="201">
   <si>
     <t>API Mode</t>
   </si>
@@ -583,6 +583,69 @@
   </si>
   <si>
     <t>RMA-ZHZC-1-3</t>
+  </si>
+  <si>
+    <t>RMA-2HH1-001</t>
+  </si>
+  <si>
+    <t>RMA-2HH1-002</t>
+  </si>
+  <si>
+    <t>RMA-2HH1-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYlAAM</t>
+  </si>
+  <si>
+    <t>RMA-2HH1-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYmAAM</t>
+  </si>
+  <si>
+    <t>RMA-2HH1-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYnAAM</t>
+  </si>
+  <si>
+    <t>RMA-2HH1-1-3</t>
+  </si>
+  <si>
+    <t>RMA-87Y5-001</t>
+  </si>
+  <si>
+    <t>RMA-87Y5-002</t>
+  </si>
+  <si>
+    <t>RMA-87Y5-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZ5AAM</t>
+  </si>
+  <si>
+    <t>RMA-87Y5-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZ6AAM</t>
+  </si>
+  <si>
+    <t>RMA-87Y5-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZ7AAM</t>
+  </si>
+  <si>
+    <t>RMA-87Y5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-PGV6-001</t>
+  </si>
+  <si>
+    <t>RMA-PGV6-002</t>
+  </si>
+  <si>
+    <t>RMA-PGV6-003</t>
   </si>
 </sst>
 </file>
@@ -592,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="177" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +675,186 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1486,7 +1729,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1710,11 +1953,56 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="177">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1860,8 +2148,38 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="146" fillId="0" borderId="72" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="176" fillId="0" borderId="87" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2730,11 +3048,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.23828125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.05078125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.97265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.2109375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2784,10 +3102,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2796,7 +3114,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2813,10 +3131,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2825,7 +3143,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2842,10 +3160,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2854,7 +3172,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
